--- a/tests/ARCTokenization.Tests/Fixtures/arcStructure/studies/experiment1_material/isa.study.xlsx
+++ b/tests/ARCTokenization.Tests/Fixtures/arcStructure/studies/experiment1_material/isa.study.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lux-c\source\repos\fslaborg\ARCTokenization\tests\ARCTokenization.Tests\Fixtures\testPaths\arcStructure\studies\experiment1_material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\ARCTokenization\tests\ARCTokenization.Tests\Fixtures\correct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE77B22-34C0-434C-825E-C9519835D7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF367CBD-FC8E-400F-90D6-BA8514767AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Study" sheetId="2" r:id="rId1"/>
+    <sheet name="isa_study" sheetId="2" r:id="rId1"/>
+    <sheet name="process_1" sheetId="1" r:id="rId2"/>
+    <sheet name="process_2" sheetId="3" r:id="rId3"/>
+    <sheet name="Cell Cultivation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
   <si>
     <t>Study Identifier</t>
   </si>
@@ -59,6 +62,9 @@
     <t>Study File Name</t>
   </si>
   <si>
+    <t>experiment1_material\isa.study.xlsx</t>
+  </si>
+  <si>
     <t>STUDY DESIGN DESCRIPTORS</t>
   </si>
   <si>
@@ -224,23 +230,158 @@
     <t>In this a devised study to have an exemplary experimental material description.</t>
   </si>
   <si>
+    <t>Source Name</t>
+  </si>
+  <si>
+    <t>Sample Name</t>
+  </si>
+  <si>
+    <t>RealObject1</t>
+  </si>
+  <si>
+    <t>RealObject2</t>
+  </si>
+  <si>
+    <t>RealObject3</t>
+  </si>
+  <si>
+    <t>RealObject4</t>
+  </si>
+  <si>
+    <t>RealObject5</t>
+  </si>
+  <si>
+    <t>Sample1</t>
+  </si>
+  <si>
+    <t>Sample2</t>
+  </si>
+  <si>
+    <t>Sample3</t>
+  </si>
+  <si>
+    <t>Sample4</t>
+  </si>
+  <si>
+    <t>Sample5</t>
+  </si>
+  <si>
+    <t>RealObject6</t>
+  </si>
+  <si>
+    <t>Sample6</t>
+  </si>
+  <si>
+    <t>Characteristic [biological replicate]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000042)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000042)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Characteristic [Performed Procedure Step SOP Instance UID]</t>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C69261)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C69261)</t>
+  </si>
+  <si>
+    <t>Characteristic [organism]</t>
+  </si>
+  <si>
+    <t>Term Source REF (OBI:0100026)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (OBI:0100026)</t>
+  </si>
+  <si>
+    <t>Arabidopsis thaliana</t>
+  </si>
+  <si>
+    <t>NCBITaxon</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_3702</t>
+  </si>
+  <si>
+    <t>Raw Data File</t>
+  </si>
+  <si>
+    <t>Sample1_e36ca6b8-19ba-4504-aa82-d4781765873d.png</t>
+  </si>
+  <si>
+    <t>Sample2_714ca2b7-22b7-4f69-b83d-9165f624da25.png</t>
+  </si>
+  <si>
+    <t>Sample3_66fac760-acc7-4ed4-ba21-2cb67fa36e4d.png</t>
+  </si>
+  <si>
+    <t>Sample4_cba5f40c-fc05-44d6-a589-b0e3dafaeefe.png</t>
+  </si>
+  <si>
+    <t>Sample5_84c37b60-2342-4226-a36c-4b8dfe84ebe9.png</t>
+  </si>
+  <si>
+    <t>Sample6_208df064-4b1c-4da0-a1f8-6412e1fb2284.png</t>
+  </si>
+  <si>
+    <t>e36ca6b8-19ba-4504-aa82-d4781765873d</t>
+  </si>
+  <si>
+    <t>714ca2b7-22b7-4f69-b83d-9165f624da25</t>
+  </si>
+  <si>
+    <t>66fac760-acc7-4ed4-ba21-2cb67fa36e4d</t>
+  </si>
+  <si>
+    <t>cba5f40c-fc05-44d6-a589-b0e3dafaeefe</t>
+  </si>
+  <si>
+    <t>208df064-4b1c-4da0-a1f8-6412e1fb2284</t>
+  </si>
+  <si>
+    <t>84c37b60-2342-4226-a36c-4b8dfe84ebe9</t>
+  </si>
+  <si>
+    <t>Protocol Type</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>growth protocol</t>
+  </si>
+  <si>
+    <t>EFO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EFO_0003789</t>
+  </si>
+  <si>
+    <t>Cultivation Flask</t>
+  </si>
+  <si>
     <t>STUDY</t>
-  </si>
-  <si>
-    <t>studies\experiment1_material\isa.study.xlsx</t>
-  </si>
-  <si>
-    <t>assays\measurement1\isa.assay.xlsx</t>
-  </si>
-  <si>
-    <t>assays\measurement2\isa.assay.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +512,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -717,54 +864,80 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -777,8 +950,53 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1165B2E-827E-457B-906F-4145B50AC781}" name="annotationTableHungryTiger0" displayName="annotationTableHungryTiger0" ref="A1:H7" totalsRowShown="0">
+  <autoFilter ref="A1:H7" xr:uid="{C1165B2E-827E-457B-906F-4145B50AC781}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{5AF7FA23-150F-42F5-B5DF-77E2C1BFAB4D}" name="Source Name"/>
+    <tableColumn id="6" xr3:uid="{B1CC1296-7BE8-4488-B3CE-FCDCF4D380F1}" name="Characteristic [organism]"/>
+    <tableColumn id="7" xr3:uid="{CF702EF3-6D10-4FD4-9E95-B655E29AD970}" name="Term Source REF (OBI:0100026)" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{A608F9E5-C76B-45AC-BAD7-E8CDFFE785B6}" name="Term Accession Number (OBI:0100026)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C5B9D0D4-70FC-4B44-90B4-57E0199BE92E}" name="Characteristic [biological replicate]"/>
+    <tableColumn id="4" xr3:uid="{3401C4BC-F8D4-4E7A-97DD-66F83F5DD253}" name="Term Source REF (DPBO:0000042)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{DA1D5E94-4691-4365-9074-CF59824E3106}" name="Term Accession Number (DPBO:0000042)" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{0B1B4A6D-A1C8-4594-9017-8DE00B9905A5}" name="Sample Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2AE92E6D-BC9C-4973-8594-23709B54012A}" name="annotationTableModernFrog76" displayName="annotationTableModernFrog76" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{2AE92E6D-BC9C-4973-8594-23709B54012A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5E73C963-C55F-49F0-8E80-3A7CBEF66041}" name="Source Name"/>
+    <tableColumn id="3" xr3:uid="{FA06D978-BED9-4457-A8A3-C6AF631BD523}" name="Characteristic [Performed Procedure Step SOP Instance UID]"/>
+    <tableColumn id="4" xr3:uid="{3939901E-72F7-438E-B76B-001FEF9AB6FE}" name="Term Source REF (NCIT:C69261)" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{8013AF8B-3273-4B85-A679-0A7E0047215D}" name="Term Accession Number (NCIT:C69261)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{415AFED3-AB79-47FC-9964-2532EE682067}" name="Raw Data File"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3BFD2E9F-641F-4E55-A89A-8B11DC1D9335}" name="annotationTableTastyRattlesnake30" displayName="annotationTableTastyRattlesnake30" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{3BFD2E9F-641F-4E55-A89A-8B11DC1D9335}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{322CEE37-18A4-4496-A9B9-078A56569BA5}" name="Source Name"/>
+    <tableColumn id="3" xr3:uid="{71C79D2C-4F35-45A6-AC8C-FC642FF21197}" name="Protocol Type"/>
+    <tableColumn id="4" xr3:uid="{C4C33D42-261A-4255-B254-33E696B51D98}" name="Term Source REF (DPBO:1000161)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{4F4398CE-A996-4D66-9746-4F3C15CE3F3C}" name="Term Accession Number (DPBO:1000161)" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{064D7134-1AE0-4C2E-AFCE-104539A55CDF}" name="Sample Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1092,23 +1310,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1116,319 +1335,799 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF4C419-B4B2-472F-854A-78714092713F}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF327ED-5FE1-49C1-BE83-D76442EF664B}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>